--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B28752E-0720-424D-B68D-7E45ED81056C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F99A2-3AF7-4C65-B5AB-799A25FF6465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6F99A2-3AF7-4C65-B5AB-799A25FF6465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17549A7B-DFF4-4948-B9AE-68397CABF844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="datatable" sheetId="2" r:id="rId2"/>
+    <sheet name="Security" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -159,6 +161,117 @@
   </si>
   <si>
     <t>https://salesforcecodex.com/2020/03/service-component-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2020/06/change-background-color-in-lightning.html</t>
+  </si>
+  <si>
+    <t>Change background colour</t>
+  </si>
+  <si>
+    <t>multiline toast message</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2020/05/multi-line-toast-message-in-lightning.html</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2020/04/how-to-add-pagination-in-lightning-data.html</t>
+  </si>
+  <si>
+    <t>truncate string</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2020/04/truncate-string-with-line-clamp-in.html</t>
+  </si>
+  <si>
+    <t>Truncate String with Line Clamp in Lightning Component </t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2020/04/add-sorting-in-lightning-data-table.html</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2019/06/enforce-fls-crud-in-lightning-component.html</t>
+  </si>
+  <si>
+    <t>FLS &amp; CRUD Permissions</t>
+  </si>
+  <si>
+    <t>Dynamic Relatedlist</t>
+  </si>
+  <si>
+    <t>https://livingthetrailhead.com/2019/06/21/add-dynamic-related-list-on-record-page/</t>
+  </si>
+  <si>
+    <t>https://livingthetrailhead.com/2019/09/09/width-aware-lighting-web-component-with-object-and-record-binding/</t>
+  </si>
+  <si>
+    <t>Width-Aware Lighting Web Component with Object and Record Binding</t>
+  </si>
+  <si>
+    <t>flexipageRegionWidth</t>
+  </si>
+  <si>
+    <t>https://livingthetrailhead.com/2020/11/01/using-the-ui-api-with-lwc/</t>
+  </si>
+  <si>
+    <t>Submit multiple forms</t>
+  </si>
+  <si>
+    <t>https://livingthetrailhead.com/2020/10/04/submit-more-than-one-record-edit-forms-in-a-single-click/</t>
+  </si>
+  <si>
+    <t>https://livingthetrailhead.com/2020/05/24/get-child-elements-in-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>https://sfdctechie.wordpress.com/2020/05/13/understanding-query-selectors-in-lwc/</t>
+  </si>
+  <si>
+    <t>https://www.sfdcblogs.com/post/how-to-fetch-inputs-in-lightning-web-components</t>
+  </si>
+  <si>
+    <t>querySeelctor</t>
+  </si>
+  <si>
+    <t>https://www.sfdcamplified.com/2020/07/parent-to-child-method-lwc.html</t>
+  </si>
+  <si>
+    <t>https://www.santanuatonline.com/dom-manipulation-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://salesforcediaries.com/2020/05/01/adding-or-removing-css-class-in-lightning-web-component-pragmatically/</t>
+  </si>
+  <si>
+    <t>https://medium.com/@prashant90.pandey/add-and-remove-styling-upon-button-click-in-lightning-web-component-daa72790ce5b</t>
+  </si>
+  <si>
+    <t>https://www.techiediaries.com/javascript-queryselectorall-nodelist-foreach/</t>
+  </si>
+  <si>
+    <t>https://rajvakati.com/2019/02/08/lightning-web-component-slots/</t>
+  </si>
+  <si>
+    <t>Default values</t>
+  </si>
+  <si>
+    <t>https://salesforcekings.blogspot.com/2020/05/prepopulate-or-clone-field-values-using.html</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2020/10/prevent-users-from-logging-in-with.html</t>
+  </si>
+  <si>
+    <t>hyper links</t>
+  </si>
+  <si>
+    <t>https://jayakrishnasfdc.wordpress.com/2020/04/05/hyperlink-a-record-in-lightningdatatable/</t>
   </si>
 </sst>
 </file>
@@ -491,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,72 +722,274 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>25</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>29</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C50" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48827A36-A418-47DB-A20A-585EBFD735E9}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="61.08984375" customWidth="1"/>
+    <col min="3" max="3" width="136.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F52C3B-4F9B-45CB-A829-D2D51C2D8252}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="171.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17549A7B-DFF4-4948-B9AE-68397CABF844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D8CB2-B40D-4A14-BD25-6569C596CA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48827A36-A418-47DB-A20A-585EBFD735E9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D8CB2-B40D-4A14-BD25-6569C596CA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA169D3-EF37-4C98-957A-C90FBE6FC132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="datatable" sheetId="2" r:id="rId2"/>
     <sheet name="Security" sheetId="4" r:id="rId3"/>
+    <sheet name="Tools" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -272,6 +273,45 @@
   </si>
   <si>
     <t>https://jayakrishnasfdc.wordpress.com/2020/04/05/hyperlink-a-record-in-lightningdatatable/</t>
+  </si>
+  <si>
+    <t>https://www.salesforcecodecrack.com/search/label/Lightning%20Web%20Components</t>
+  </si>
+  <si>
+    <t>Alternate to connectedCallback and disconnectedCallback</t>
+  </si>
+  <si>
+    <t>Node.isConnected </t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>pub sub</t>
+  </si>
+  <si>
+    <t>http://www.saravanansfdc.com/2020/06/display-contact-and-their-related-cases.html</t>
+  </si>
+  <si>
+    <t>Global Providers</t>
+  </si>
+  <si>
+    <t>https://www.wissel.net/blog/2019/03/global-value-providers-in-lwc.html</t>
+  </si>
+  <si>
+    <t>https://www.tech-works.in/lwc-events-communication/</t>
+  </si>
+  <si>
+    <t>https://www.tech-works.in/how-to-use-chart-js-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://www.tech-works.in/how-to-get-current-logged-in-user-id-in-lightning-component-and-lightning-web-component-in-salesforce/</t>
+  </si>
+  <si>
+    <t>https://www.tech-works.in/sfdc-tool-list/field-dependency-finder-salesforce/</t>
+  </si>
+  <si>
+    <t>Field Finder</t>
   </si>
 </sst>
 </file>
@@ -604,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,6 +947,56 @@
       </c>
       <c r="C65" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -992,4 +1082,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="173.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA169D3-EF37-4C98-957A-C90FBE6FC132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591E98BB-CF5C-46FD-8892-B5FB47AAD484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>Field Finder</t>
+  </si>
+  <si>
+    <t>Share code</t>
+  </si>
+  <si>
+    <t>https://salesforce-walker.blogspot.com/2020/08/share-javascript-code-in-lwc.html</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,6 +1003,14 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591E98BB-CF5C-46FD-8892-B5FB47AAD484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F923E2D-8920-43E6-AFBE-B651EDD6BE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="datatable" sheetId="2" r:id="rId2"/>
     <sheet name="Security" sheetId="4" r:id="rId3"/>
     <sheet name="Tools" sheetId="5" r:id="rId4"/>
+    <sheet name="vsCode Extensions" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -319,12 +320,33 @@
   <si>
     <t>https://salesforce-walker.blogspot.com/2020/08/share-javascript-code-in-lwc.html</t>
   </si>
+  <si>
+    <t>Restrict LWC to single or more objects</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/documentation/en/lwc/lwc.use_config_for_app_builder</t>
+  </si>
+  <si>
+    <t>https://rajvakati.com/2018/12/26/lightning-web-components-in-lightning-app-builder/</t>
+  </si>
+  <si>
+    <t>https://salesforce-walker.blogspot.com/2020/08/navigate-to-records-create-page-with.html</t>
+  </si>
+  <si>
+    <t>https://salesforce-walker.blogspot.com/2019/05/configure-default-field-values-with.html</t>
+  </si>
+  <si>
+    <t>Default values with Metadata</t>
+  </si>
+  <si>
+    <t>debug-log-analyzer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +366,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,16 +392,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -955,6 +988,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>80</v>
@@ -1005,11 +1046,29 @@
         <v>88</v>
       </c>
     </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>91</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1123,4 +1182,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21982E-477D-433F-A1B0-FB62CD8142DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://github.com/financialforcedev/debug-log-analyzer" xr:uid="{A670C318-658D-4761-88D6-9E7AE75AD57C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F923E2D-8920-43E6-AFBE-B651EDD6BE4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE525E-F271-49B6-ADF0-A879124BC43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>debug-log-analyzer</t>
+  </si>
+  <si>
+    <t>rfLib</t>
+  </si>
+  <si>
+    <t>Logging Framework for Apex, AURA and LWC components</t>
   </si>
 </sst>
 </file>
@@ -1159,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,6 +1185,14 @@
         <v>89</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1188,7 +1202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21982E-477D-433F-A1B0-FB62CD8142DB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE525E-F271-49B6-ADF0-A879124BC43E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8938B58-431E-455B-BE22-49029438CF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -346,6 +346,75 @@
   </si>
   <si>
     <t>Logging Framework for Apex, AURA and LWC components</t>
+  </si>
+  <si>
+    <t>Show/Hide lightning components</t>
+  </si>
+  <si>
+    <t>Method-1</t>
+  </si>
+  <si>
+    <t>Custom Permissions</t>
+  </si>
+  <si>
+    <t>Problem-1: we can only add 10 filter conditions</t>
+  </si>
+  <si>
+    <t>Problem-2: it can't hide the fields in the component.</t>
+  </si>
+  <si>
+    <t>Problem-1 can be solved by using Formula field. In formula field we can put multiple conditions.</t>
+  </si>
+  <si>
+    <t>Problem-2 can be solved by Custom permissions in Custom Components, but not Standard Components</t>
+  </si>
+  <si>
+    <t>Method-2</t>
+  </si>
+  <si>
+    <t>Different ways we can controlling the displyaing fields wrt to the user</t>
+  </si>
+  <si>
+    <t>Method-1: Use record edit form and override the onLoad method to capture the user accebility fields and then use disabled attribute to display field or not</t>
+  </si>
+  <si>
+    <t>Method-2: user wire method to get the custom permissions and then use template:if /disabled attribute to disable field, buttons, sections ect</t>
+  </si>
+  <si>
+    <t>Method-3: Configure Hirerchical Custom settings to render the fields in UI wrt User--&gt;Profile--&gt;Organization</t>
+  </si>
+  <si>
+    <t>https://salesforce-walker.blogspot.com/2020/12/check-user-permissions-for-lightning.html</t>
+  </si>
+  <si>
+    <t>https://salesforce-walker.blogspot.com/2020/08/check-user-permissions-for-lightning.html</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/custom-permission-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://thewizardnews.com/2018/11/14/using-custom-permissions-with-lightning-component-visibility/</t>
+  </si>
+  <si>
+    <t>https://www.forcetrails.com/2020/07/custom-permission-user-permission-lightning-web-component.html</t>
+  </si>
+  <si>
+    <t>http://theblogreaders.com/summer-20-checking-user-permissions-custom-permissions-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>https://www.mstsolutions.com/technical/check-user-permissions-for-lightning-web-components/#</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/using-custom-javascript-modules-as-static-resources-in-salesforce-orgs-4b6df1477dc4</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/share-javascript-code-between-lwc-and-aura/</t>
+  </si>
+  <si>
+    <t>https://www.santanuatonline.com/import-export-javascript-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://www.salesforcecodecrack.com/2019/03/how-to-import-third-party-libraries-in.html</t>
   </si>
 </sst>
 </file>
@@ -689,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1076,6 +1145,115 @@
       </c>
       <c r="C85" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8938B58-431E-455B-BE22-49029438CF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8B063-B672-4090-820D-751AA4A3A6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Different ways we can controlling the displyaing fields wrt to the user</t>
   </si>
   <si>
-    <t>Method-1: Use record edit form and override the onLoad method to capture the user accebility fields and then use disabled attribute to display field or not</t>
-  </si>
-  <si>
     <t>Method-2: user wire method to get the custom permissions and then use template:if /disabled attribute to disable field, buttons, sections ect</t>
   </si>
   <si>
@@ -415,6 +412,42 @@
   </si>
   <si>
     <t>https://www.salesforcecodecrack.com/2019/03/how-to-import-third-party-libraries-in.html</t>
+  </si>
+  <si>
+    <t>PMD</t>
+  </si>
+  <si>
+    <t>http://www.subhasiskar.com/2020/05/pmd-source-code-analyser-automated-apex.html?m=1</t>
+  </si>
+  <si>
+    <t>Caching (Performance)</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/blogs/2019/09/caching-and-synchronizing-component-data-with-lightning-data-service.html</t>
+  </si>
+  <si>
+    <t>https://www.sfdconcept.com/post/now-speed-up-your-lightning-web-components-lwc-performance</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>http://www.sf-ninjas.com/articles/40-do-not-reinvent-the-wheel-javascript-standards-for-lwc-development</t>
+  </si>
+  <si>
+    <t>Javascript debug</t>
+  </si>
+  <si>
+    <t>http://ufthelp.com/2020/06/18/how-to-enable-debug-mode-for-lightning-web-components-2/</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>https://www.sfdcegal.com/2020/09/navigation-service-in-lightning-web.html</t>
+  </si>
+  <si>
+    <t>Method-1: Use record edit form and override the onLoad method to capture the user accebility fields and then use disabled attribute to display field or not (https://www.wissel.net/blog/2019/04/lightning-layouts-input-fields-and-field-level-security.html)</t>
   </si>
 </sst>
 </file>
@@ -758,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,22 +1182,22 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1208,52 +1241,89 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1369,6 +1439,14 @@
       </c>
       <c r="B4" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C8B063-B672-4090-820D-751AA4A3A6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AC8F65-DABE-4613-8314-634A0F9D7C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -448,6 +448,21 @@
   </si>
   <si>
     <t>Method-1: Use record edit form and override the onLoad method to capture the user accebility fields and then use disabled attribute to display field or not (https://www.wissel.net/blog/2019/04/lightning-layouts-input-fields-and-field-level-security.html)</t>
+  </si>
+  <si>
+    <t>https://salesforcecodex.com/2019/04/inheritance-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>static Resource</t>
+  </si>
+  <si>
+    <t>ES6 (export &amp; import)</t>
+  </si>
+  <si>
+    <t>https://hellosnl.blogspot.com/2019/08/lwc-modularizing-code-using-singleton-pattern.html</t>
   </si>
 </sst>
 </file>
@@ -791,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1176,153 +1191,172 @@
       <c r="A85" t="s">
         <v>91</v>
       </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
       <c r="C85" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C86" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>138</v>
+      </c>
       <c r="C88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>102</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>103</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C95" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C98" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
         <v>109</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C102" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C107" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>126</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C114" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>129</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C121" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>131</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>133</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" t="s">
         <v>134</v>
       </c>
     </row>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AC8F65-DABE-4613-8314-634A0F9D7C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C99C5B-F2D4-435A-801A-F04AC8DF6B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -463,6 +463,69 @@
   </si>
   <si>
     <t>https://hellosnl.blogspot.com/2019/08/lwc-modularizing-code-using-singleton-pattern.html</t>
+  </si>
+  <si>
+    <t>https://www.levelupsalesforce.com/constants-in-lightning-web-components</t>
+  </si>
+  <si>
+    <t>Event Handling</t>
+  </si>
+  <si>
+    <t>http://amitsalesforce.blogspot.com/2019/07/events-in-lightning-web-components-lwc.html</t>
+  </si>
+  <si>
+    <t>https://www.sfdcamplified.com/2020/08/childtoparent-addeventlistner.html</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/event-handling-in-lwc-using-js-controller/</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/event-handling-using-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>https://www.santanuatonline.com/custom-event-communication-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>factories</t>
+  </si>
+  <si>
+    <t>https://craftware.com/the-use-of-factories-in-salesforce-lwc/</t>
+  </si>
+  <si>
+    <t>Apex Factory for LWC</t>
+  </si>
+  <si>
+    <t>https://journeysbyta.com/2020/06/18/coding-patterns-for-reusable-lightning-web-components-factory-pattern/</t>
+  </si>
+  <si>
+    <t>https://sfdctechie.wordpress.com/2020/08/27/lwc-events-simplified/</t>
+  </si>
+  <si>
+    <t>Async/wait</t>
+  </si>
+  <si>
+    <t>https://www.sfdcblogs.com/post/asynchronous-javascript-in-lightning-web-component</t>
+  </si>
+  <si>
+    <t>http://a1vin.com/2020/03/12/async-await-functions-in-LWC-md/</t>
+  </si>
+  <si>
+    <t>https://newstechnologystuff.com/2020/07/26/async-await-in-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <t>https://newstechnologystuff.com/2020/07/26/promise-in-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>https://sfdctechie.wordpress.com/2020/05/15/understanding-js-promises-for-lwc-with-example/</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/documentation/en/lwc/lwc.create_components_javascript_share</t>
+  </si>
+  <si>
+    <t>separate js file in the same component</t>
   </si>
 </sst>
 </file>
@@ -806,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,226 +1201,324 @@
         <v>81</v>
       </c>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>86</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
       <c r="C77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C78" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B90" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>137</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C91" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>139</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C87" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
         <v>138</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C90" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C91" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B103" t="s">
         <v>103</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C96" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C99" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C100" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
         <v>109</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C103" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C104" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C105" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C111" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C112" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>126</v>
-      </c>
       <c r="C115" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>129</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>133</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C136" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C99C5B-F2D4-435A-801A-F04AC8DF6B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582AECB5-C99C-4BB5-A4E0-F5118074C272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>separate js file in the same component</t>
+  </si>
+  <si>
+    <t>Axios</t>
+  </si>
+  <si>
+    <t>https://hellosnl.blogspot.com/search/label/LWC?m=0</t>
   </si>
 </sst>
 </file>
@@ -871,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1642,6 +1648,14 @@
       </c>
       <c r="B8" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582AECB5-C99C-4BB5-A4E0-F5118074C272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42A21CA-8620-4AA9-BD50-C429AFE554EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="datatable" sheetId="2" r:id="rId2"/>
-    <sheet name="Security" sheetId="4" r:id="rId3"/>
-    <sheet name="Tools" sheetId="5" r:id="rId4"/>
-    <sheet name="vsCode Extensions" sheetId="6" r:id="rId5"/>
+    <sheet name="Bulkification" sheetId="7" r:id="rId2"/>
+    <sheet name="datatable" sheetId="2" r:id="rId3"/>
+    <sheet name="Security" sheetId="4" r:id="rId4"/>
+    <sheet name="Tools" sheetId="5" r:id="rId5"/>
+    <sheet name="vsCode Extensions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -532,6 +533,75 @@
   </si>
   <si>
     <t>https://hellosnl.blogspot.com/search/label/LWC?m=0</t>
+  </si>
+  <si>
+    <t>https://www.w3web.net/add-custom-style-css-in-lwc/</t>
+  </si>
+  <si>
+    <t>client side</t>
+  </si>
+  <si>
+    <t>https://cafeforce.com/client-side-pagination-lightning-web-components-lwc-salesforce/</t>
+  </si>
+  <si>
+    <t>https://cafeforce.com/server-side-pagination-lightning-web-components-lwc-salesforce/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server side </t>
+  </si>
+  <si>
+    <t>http://amitsalesforce.blogspot.com/2019/10/lightning-datatable-in-lightning-web-component.html</t>
+  </si>
+  <si>
+    <t>Inline record edit</t>
+  </si>
+  <si>
+    <t>Data table</t>
+  </si>
+  <si>
+    <t>https://medium.com/@salesforcelwc/editable-data-table-using-lightning-web-components-9f0dd9fcff17</t>
+  </si>
+  <si>
+    <t>related list</t>
+  </si>
+  <si>
+    <t>https://www.infallibletechie.com/2019/03/related-list-card-with-filter-and.html</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/documentation/en/lwc/lwc.data_table_inline_edit</t>
+  </si>
+  <si>
+    <t>delete bulk records</t>
+  </si>
+  <si>
+    <t>http://salesforce-lwc-guide.com/add-delete-multiple-rows-in-lwc/</t>
+  </si>
+  <si>
+    <t>https://www.salesforcecodecrack.com/2019/06/delete-multiple-selected-records.html</t>
+  </si>
+  <si>
+    <t>https://www.w3web.net/deleting-multiple-records-with-checkbox-in-lwc/</t>
+  </si>
+  <si>
+    <t>https://www.srinivas4sfdc.com/2019/12/how-to-select-and-update-multiple.html</t>
+  </si>
+  <si>
+    <t>https://cafeforce.com/related-list-inline-edit-lightning-component-salesforce/</t>
+  </si>
+  <si>
+    <t>https://sfdcmonkey.com/2017/12/08/lightning-data-table-inline-editing/</t>
+  </si>
+  <si>
+    <t>standard enhanced related list</t>
+  </si>
+  <si>
+    <t>uiListApi for custamization</t>
+  </si>
+  <si>
+    <t>http://pandeyatcrm.blogspot.com/2020/10/what-are-lds-adapters-from-my-previous.html</t>
+  </si>
+  <si>
+    <t>https://www.salesforcetroop.com/kanban-board-lwc-project</t>
   </si>
 </sst>
 </file>
@@ -875,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,535 +1066,560 @@
     <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="C32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>23</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>25</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>39</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>43</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>47</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>53</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>54</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>57</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>58</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
         <v>98</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>80</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>79</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>2</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C73" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C80" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C83" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>93</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C88" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>161</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C91" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>137</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C92" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>139</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
         <v>138</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
-        <v>148</v>
-      </c>
-      <c r="C100" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
         <v>150</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>103</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C104" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C111" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C115" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>126</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C124" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>133</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>153</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C141" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C142" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>157</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B151" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1534,6 +1629,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC03C94D-8F5B-4AA7-8F34-706F763E2117}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="143.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48827A36-A418-47DB-A20A-585EBFD735E9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1585,7 +1785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F52C3B-4F9B-45CB-A829-D2D51C2D8252}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -1612,11 +1812,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21982E-477D-433F-A1B0-FB62CD8142DB}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42A21CA-8620-4AA9-BD50-C429AFE554EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FAC2AD-9DBF-48AE-9407-C9903A99C1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="188">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>https://www.salesforcetroop.com/kanban-board-lwc-project</t>
+  </si>
+  <si>
+    <t>https://www.salesforcetroop.com/lwc/passing-data-parent-to-child-on-action</t>
   </si>
 </sst>
 </file>
@@ -945,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1293,332 +1296,337 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C81" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>84</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C84" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>93</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>161</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>137</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C93" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
         <v>139</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C95" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B97" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
         <v>138</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C98" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
-        <v>148</v>
-      </c>
-      <c r="C101" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
         <v>150</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C105" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C108" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C109" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B111" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
         <v>109</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C112" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C112" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C116" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C117" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C118" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>126</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C125" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>131</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>133</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>153</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C142" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C143" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>157</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C148" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>45</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>165</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B152" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
         <v>168</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1632,7 +1640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC03C94D-8F5B-4AA7-8F34-706F763E2117}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FAC2AD-9DBF-48AE-9407-C9903A99C1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757BDF4C-2A63-44E1-ABF7-0184C64FC14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -605,6 +605,18 @@
   </si>
   <si>
     <t>https://www.salesforcetroop.com/lwc/passing-data-parent-to-child-on-action</t>
+  </si>
+  <si>
+    <t>https://auraenabled.com/2020/04/events-in-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>https://blog.salesforcecasts.com/conditionally-propagate-events-in-lwc/</t>
+  </si>
+  <si>
+    <t>https://blog.salesforcecasts.com/advanced-events-lwc/a</t>
+  </si>
+  <si>
+    <t>https://www.sfdcblogs.com/post/event-propagation-in-lwc</t>
   </si>
 </sst>
 </file>
@@ -948,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,337 +1308,357 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C85" t="s">
-        <v>87</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>82</v>
+      </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B97" t="s">
         <v>161</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C97" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
-        <v>137</v>
-      </c>
-      <c r="C93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C96" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
       <c r="C100" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
-        <v>148</v>
-      </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" t="s">
-        <v>103</v>
-      </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C109" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C110" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B112" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
         <v>109</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C117" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C113" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C114" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C115" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C117" t="s">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C119" t="s">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C120" t="s">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C121" t="s">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C122" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C123" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>126</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C130" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C126" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>129</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C136" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>131</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C139" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>133</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C143" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>153</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C147" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C143" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>157</v>
-      </c>
-      <c r="C148" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>45</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B157" t="s">
         <v>165</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C157" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B153" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
         <v>168</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C158" t="s">
         <v>167</v>
       </c>
     </row>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757BDF4C-2A63-44E1-ABF7-0184C64FC14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462B9A0-95E6-4C09-B1E4-7A7A034AE701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Security" sheetId="4" r:id="rId4"/>
     <sheet name="Tools" sheetId="5" r:id="rId5"/>
     <sheet name="vsCode Extensions" sheetId="6" r:id="rId6"/>
+    <sheet name="Integration" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="216">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -617,6 +618,78 @@
   </si>
   <si>
     <t>https://www.sfdcblogs.com/post/event-propagation-in-lwc</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/publish-subscribe-model-in-lwc/</t>
+  </si>
+  <si>
+    <t>http://sfdccodepractices.blogspot.com/2019/05/publish-subscribe-pattern-in-lwc.html</t>
+  </si>
+  <si>
+    <t>https://www.santanuatonline.com/publish-subscriber-model-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://www.v2force.com/blogs/publish-subscribe-model-in-lightning-web-component-lwc-part-2-salesforce-blog/</t>
+  </si>
+  <si>
+    <t>https://www.sfdcpanther.com/pub-sub-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://getoncrm.com/how-to-override-css-of-inner-elements-of-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>override CSS</t>
+  </si>
+  <si>
+    <t>LWC CSS effects</t>
+  </si>
+  <si>
+    <t>Life Cycle</t>
+  </si>
+  <si>
+    <t>https://knowledgepredator.com/2020/06/14/life-cycle-hooks-in-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>https://knowledgepredator.com/2020/06/14/communication-between-unrelated-components-using-publisher-subscriber-pattern-lwc/</t>
+  </si>
+  <si>
+    <t>https://www.danielkim.io/articles/lwc-lifecycle-hooks</t>
+  </si>
+  <si>
+    <t>https://www.sfdcblogs.com/post/lifecycle-hooks-in-lightning-web-components</t>
+  </si>
+  <si>
+    <t>https://www.sfdcamplified.com/2020/07/lifecycle-hook-lwc.html</t>
+  </si>
+  <si>
+    <t>https://albasfdc.com/2019/02/12/lwc-lifecycle-hooks/</t>
+  </si>
+  <si>
+    <t>https://medium.com/salesforce-champion/lighting-web-component-life-cycle-70dee70fad89</t>
+  </si>
+  <si>
+    <t>https://www.sfdcamplified.com/2020/08/lifecyclehook-lwc.html</t>
+  </si>
+  <si>
+    <t>https://www.salesforcecodecrack.com/2019/05/lifecycle-of-callback-methods-in.html</t>
+  </si>
+  <si>
+    <t>https://www.sfdcamplified.com/2020/08/errorcallback-in-lwc.html</t>
+  </si>
+  <si>
+    <t>https://rajasfdc.com/2020/09/28/execute-dml-in-batches-using-chained-queueable-jobs/</t>
+  </si>
+  <si>
+    <t>https://rajasfdc.com/2020/09/28/live-progress-bar-for-long-running-processes-using-lwc-streaming-api/</t>
+  </si>
+  <si>
+    <t>Long running Request</t>
+  </si>
+  <si>
+    <t>https://github.com/victorgz/sfdc-apex-continuations/blob/master/force-app/main/default/namedCredentials/TestEndpoint.namedCredential-meta.xml</t>
+  </si>
+  <si>
+    <t>http://salesforcediaries.blogspot.com/2019/08/salesforce-integration-approaches.html</t>
   </si>
 </sst>
 </file>
@@ -960,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1140,526 +1213,662 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>199</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
       <c r="C59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" t="s">
-        <v>56</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C75" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
       <c r="C76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C77" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
       <c r="C78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C80" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
       <c r="C82" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C83" t="s">
-        <v>189</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C87" t="s">
-        <v>86</v>
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>84</v>
-      </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
-        <v>96</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
-        <v>95</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" t="s">
-        <v>161</v>
-      </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B98" t="s">
-        <v>137</v>
-      </c>
       <c r="C98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C99" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>82</v>
+      </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>138</v>
-      </c>
       <c r="C103" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>148</v>
-      </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
-        <v>150</v>
-      </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>148</v>
+      </c>
+      <c r="C128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>150</v>
+      </c>
+      <c r="C129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C114" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C115" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B117" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
         <v>109</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C138" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C119" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C120" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C122" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C123" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C124" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C125" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C126" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C127" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C128" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>126</v>
-      </c>
-      <c r="C130" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C131" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>129</v>
-      </c>
-      <c r="C136" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>131</v>
-      </c>
-      <c r="C139" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>153</v>
-      </c>
-      <c r="C147" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C148" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C154" t="s">
-        <v>158</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>126</v>
+      </c>
+      <c r="C151" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>131</v>
+      </c>
+      <c r="C160" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="C164" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>153</v>
+      </c>
+      <c r="C168" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C170" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>157</v>
+      </c>
+      <c r="C174" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C175" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>45</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B178" t="s">
         <v>165</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C178" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B158" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
         <v>168</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C179" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="C182" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C184" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C185" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C190" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1928,4 +2137,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A8B77-C16C-4DEC-A34F-4CCE803A30F3}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="178.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462B9A0-95E6-4C09-B1E4-7A7A034AE701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559756A-8A3E-4347-A087-76B0978D6BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="236">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -686,10 +686,70 @@
     <t>Long running Request</t>
   </si>
   <si>
-    <t>https://github.com/victorgz/sfdc-apex-continuations/blob/master/force-app/main/default/namedCredentials/TestEndpoint.namedCredential-meta.xml</t>
-  </si>
-  <si>
     <t>http://salesforcediaries.blogspot.com/2019/08/salesforce-integration-approaches.html</t>
+  </si>
+  <si>
+    <t>https://www.informusgroup.com/general/apex-continuations-implementation-and-testing-in-aura-lwc/</t>
+  </si>
+  <si>
+    <t>https://salesforcecodes.blogspot.com/2020/09/long-running-callout-with-continuation.html</t>
+  </si>
+  <si>
+    <t>https://mangeshsalesforce.blogspot.com/2020/09/apex-continuation-in-lwc.html</t>
+  </si>
+  <si>
+    <t>https://sfwiseguys.wordpress.com/2020/08/10/lightning-message-service-implementation-examples/</t>
+  </si>
+  <si>
+    <t>LMS vs pub sub</t>
+  </si>
+  <si>
+    <t>Lightning Messaging Service</t>
+  </si>
+  <si>
+    <t>https://www.soliantconsulting.com/blog/lightning-message-service/</t>
+  </si>
+  <si>
+    <t>https://www.sfdcpanther.com/lightning-message-services/</t>
+  </si>
+  <si>
+    <t>https://www.informusgroup.com/general/learn-moar-lightning-message-service-generally-available-in-summer-20/</t>
+  </si>
+  <si>
+    <t>LMS considerations</t>
+  </si>
+  <si>
+    <t>https://laptrinhx.com/lightning-message-service-lms-3043838834/</t>
+  </si>
+  <si>
+    <t>https://salesforcecodex.com/2019/08/communicate-across-salesforce-ui-technologies-with-lightning-message-service/</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/lightning-message-service-future-of-communication/</t>
+  </si>
+  <si>
+    <t>https://www.codekiat.com/2020/08/Implement-lightning-message-service-lms-salesforce.html</t>
+  </si>
+  <si>
+    <t>Platform Events</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/platform-events-in-lightning-emp-api/</t>
+  </si>
+  <si>
+    <t>https://sfwiseguys.wordpress.com/2020/08/10/lightning-communication-with-platform-events/</t>
+  </si>
+  <si>
+    <t>https://www.infallibletechie.com/2020/11/salesforce-platform-event-subscription.html</t>
+  </si>
+  <si>
+    <t>https://salesforcecodex.com/2020/10/publish-platform-events-from-asp-net/</t>
+  </si>
+  <si>
+    <t>https://albasfdc.com/2017/06/11/10-thoughts-about-platform-events/</t>
+  </si>
+  <si>
+    <t>https://hellosnl.blogspot.com/2020/02/salesforce-platform-events.html</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1525,349 +1585,431 @@
         <v>202</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>219</v>
+      </c>
       <c r="C111" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C113" t="s">
-        <v>96</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>93</v>
+      <c r="B115" t="s">
+        <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C116" t="s">
-        <v>95</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" t="s">
-        <v>161</v>
-      </c>
       <c r="C118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B119" t="s">
-        <v>137</v>
-      </c>
-      <c r="C119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C120" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B121" t="s">
-        <v>139</v>
+      <c r="A121" t="s">
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C122" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C123" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B124" t="s">
-        <v>138</v>
-      </c>
       <c r="C124" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C125" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C126" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C127" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B128" t="s">
-        <v>148</v>
-      </c>
-      <c r="C128" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B129" t="s">
-        <v>150</v>
-      </c>
-      <c r="C129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>102</v>
-      </c>
-      <c r="B131" t="s">
-        <v>103</v>
-      </c>
-      <c r="C131" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C132" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C133" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C135" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C136" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B138" t="s">
-        <v>109</v>
-      </c>
-      <c r="C138" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C140" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>84</v>
+      </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C143" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C144" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C145" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>93</v>
+      </c>
       <c r="C146" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C147" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C148" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" t="s">
+        <v>161</v>
+      </c>
       <c r="C149" t="s">
-        <v>119</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>126</v>
-      </c>
       <c r="C151" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>139</v>
+      </c>
       <c r="C152" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>138</v>
+      </c>
+      <c r="C155" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>129</v>
-      </c>
       <c r="C157" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>131</v>
+      <c r="B160" t="s">
+        <v>150</v>
       </c>
       <c r="C160" t="s">
-        <v>132</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C163" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>133</v>
-      </c>
       <c r="C164" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>153</v>
-      </c>
-      <c r="C168" t="s">
-        <v>154</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>109</v>
+      </c>
       <c r="C169" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C170" t="s">
-        <v>156</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C171" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C172" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>157</v>
-      </c>
       <c r="C174" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C175" t="s">
-        <v>158</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>45</v>
-      </c>
-      <c r="B178" t="s">
-        <v>165</v>
-      </c>
       <c r="C178" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B179" t="s">
-        <v>168</v>
-      </c>
       <c r="C179" t="s">
-        <v>167</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C182" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C183" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>129</v>
+      </c>
+      <c r="C188" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>131</v>
+      </c>
+      <c r="C191" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>133</v>
+      </c>
+      <c r="C195" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C200" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C201" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>157</v>
+      </c>
+      <c r="C205" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C206" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B209" t="s">
+        <v>165</v>
+      </c>
+      <c r="C209" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>200</v>
+      </c>
+      <c r="C213" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C214" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C184" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C215" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C185" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C216" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C186" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C217" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C187" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C218" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C188" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C219" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C189" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C220" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C190" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C221" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C191" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C222" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2141,10 +2283,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A8B77-C16C-4DEC-A34F-4CCE803A30F3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2163,17 +2305,27 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>213</v>
       </c>
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559756A-8A3E-4347-A087-76B0978D6BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2078770-B98C-4BC9-B9D7-36E1D8D09088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Bulkification" sheetId="7" r:id="rId2"/>
-    <sheet name="datatable" sheetId="2" r:id="rId3"/>
-    <sheet name="Security" sheetId="4" r:id="rId4"/>
-    <sheet name="Tools" sheetId="5" r:id="rId5"/>
-    <sheet name="vsCode Extensions" sheetId="6" r:id="rId6"/>
-    <sheet name="Integration" sheetId="8" r:id="rId7"/>
+    <sheet name="Fields" sheetId="10" r:id="rId2"/>
+    <sheet name="Bulkification" sheetId="7" r:id="rId3"/>
+    <sheet name="Custom Lookup" sheetId="9" r:id="rId4"/>
+    <sheet name="datatable" sheetId="2" r:id="rId5"/>
+    <sheet name="Security" sheetId="4" r:id="rId6"/>
+    <sheet name="Tools" sheetId="5" r:id="rId7"/>
+    <sheet name="vsCode Extensions" sheetId="6" r:id="rId8"/>
+    <sheet name="Integration" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="488">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -751,12 +753,789 @@
   <si>
     <t>https://hellosnl.blogspot.com/2020/02/salesforce-platform-events.html</t>
   </si>
+  <si>
+    <t>Security Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to reset your Security Token when the option is missing  </t>
+  </si>
+  <si>
+    <t>https://[SalesforceDomainHere]/_ui/system/security/ResetApiTokenEdit?retURL=%2Fui%2Fsetup%2FSetup%3Fsetupid%3DPersonalInfo&amp;setupid=ResetApiToken</t>
+  </si>
+  <si>
+    <t>We use some integrations that require a security token.  However, we have trusted IP ranges enabled.  When you have those enabled, you won't see the reset token link if you're logged in from an address in a trusted range.   To get around this, we use the below URL:</t>
+  </si>
+  <si>
+    <t>http://ufthelp.com/2020/07/15/launch-custom-lwc-from-quick-action-using-lightning-component/</t>
+  </si>
+  <si>
+    <t>from quick action</t>
+  </si>
+  <si>
+    <t>https://dev.to/daveturissini/debug-lightning-web-components-lwc-track-and-api-properties-using-chrome-dev-tools-formatter-49c5</t>
+  </si>
+  <si>
+    <t>https://dev.to/brettmn/lwc-avoid-htmlelement-properties-2bp6</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/lightning-web-components-in-utility-bar/</t>
+  </si>
+  <si>
+    <t>from utility bar</t>
+  </si>
+  <si>
+    <t>from flow</t>
+  </si>
+  <si>
+    <t>http://www.salesforcelwc.in/use-lwc-in-flows.html</t>
+  </si>
+  <si>
+    <t>from custom tab</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/custom-tab-using-lwc-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://mtr-design.com/news/salesforce-mini-how-to-open-a-subtab-in-console-from-lightning-web-component</t>
+  </si>
+  <si>
+    <t>https://www.infallibletechie.com/2018/03/lookup-field-with-option-to-create-new.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lookup field with option to create new record </t>
+  </si>
+  <si>
+    <t>https://live.playg.app/play/custom-lightning-lookup-lwc</t>
+  </si>
+  <si>
+    <t>https://sfdctiger.com/2020/07/create-custom-reusable-lookup-in-salesforce-lightning/</t>
+  </si>
+  <si>
+    <t>https://github.com/pozil/sfdc-ui-lookup-lwc</t>
+  </si>
+  <si>
+    <t>https://cafeforce.com/custom-lookup-component-salesforce-lwc/</t>
+  </si>
+  <si>
+    <t>https://awesomeopensource.com/project/tsalb/lwc-utils</t>
+  </si>
+  <si>
+    <t>https://pritamshekhawat.wordpress.com/2020/05/09/hyperlink-formula-fields-in-lightningdatatable/</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>hyper links through formula fields</t>
+  </si>
+  <si>
+    <t>https://www.thephani.com/multi-select-header-level-actions/</t>
+  </si>
+  <si>
+    <t>header level multi select actions</t>
+  </si>
+  <si>
+    <t>Header level actions</t>
+  </si>
+  <si>
+    <t>Lay loading</t>
+  </si>
+  <si>
+    <t>https://newstechnologystuff.com/2018/09/19/lightning-data-table-with-lazy-loading/</t>
+  </si>
+  <si>
+    <t>load more</t>
+  </si>
+  <si>
+    <t>http://amitsalesforce.blogspot.com/2020/07/lazy-loading-in-lightning-web-component.html</t>
+  </si>
+  <si>
+    <t>https://sfdcmonkey.com/2019/03/05/infinity-lazy-loading-salesforce-lightning/</t>
+  </si>
+  <si>
+    <t>https://sfdcrecipes.com/2020/01/17/salesforce-lightning-datatable-with-infinite-loading/</t>
+  </si>
+  <si>
+    <t>https://salesforcecodex.com/2020/10/adding-table-row-dynamically-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>ADDING TABLE ROW DYNAMICALLY </t>
+  </si>
+  <si>
+    <t>Add rows</t>
+  </si>
+  <si>
+    <t>nested objects</t>
+  </si>
+  <si>
+    <t>https://developersvoyage.com/how-to-show-nested-object-data-in-lwc-datatable/</t>
+  </si>
+  <si>
+    <t>display nested objects</t>
+  </si>
+  <si>
+    <t>Display reference/related objects fields data</t>
+  </si>
+  <si>
+    <t>https://www.salesforcecodecrack.com/2019/10/display-reference-data-in-lwc.html</t>
+  </si>
+  <si>
+    <t>https://www.mstsolutions.com/technical/infinite-loading-of-data-table-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>popup</t>
+  </si>
+  <si>
+    <t>https://sfdcmonkey.com/2019/04/01/lightning-datatable-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>select records</t>
+  </si>
+  <si>
+    <t>https://sfdcmonkey.com/2020/12/03/data-table-pagination-checkbox-lightning/</t>
+  </si>
+  <si>
+    <t>Query 1 million records to display in UI</t>
+  </si>
+  <si>
+    <t>http://www.salesforcelwc.in/handle-bulk-data-lightning.html</t>
+  </si>
+  <si>
+    <t>https://mihirshahalwayonline.wordpress.com/2016/04/09/hack-query-limit-50001-error/</t>
+  </si>
+  <si>
+    <t>https://sfdcsurf.blogspot.com/2020/01/Roll-Up-of-more-than-50000-records.html</t>
+  </si>
+  <si>
+    <t>http://sfdc-know-how.blogspot.com/2013/11/readonly-annotation.html</t>
+  </si>
+  <si>
+    <t>https://medium.com/codymaines/1-million-query-rows-4fc7238f563f</t>
+  </si>
+  <si>
+    <t>Query 1 million records</t>
+  </si>
+  <si>
+    <t>Pagination vs infinite scroll</t>
+  </si>
+  <si>
+    <t>https://forcerangers.wordpress.com/2018/06/20/lazyloading/</t>
+  </si>
+  <si>
+    <t>https://sfdcfacts.com/lightning/lightning-pagination-with-page-number-navigation-using-client-side-controller/</t>
+  </si>
+  <si>
+    <t>https://www.knowband.com/blog/ecommerce-blog/pagination-vs-infinite-scrolling/</t>
+  </si>
+  <si>
+    <t>server side vs client side pagination</t>
+  </si>
+  <si>
+    <t>Lazy loading</t>
+  </si>
+  <si>
+    <t>Different ways implement pagination</t>
+  </si>
+  <si>
+    <t>SOAP  Replication API</t>
+  </si>
+  <si>
+    <t>https://help.salesforce.com/articleView?id=000339353&amp;type=1&amp;mode=1</t>
+  </si>
+  <si>
+    <t>http://cropredysfdc.com/2015/06/25/rest-soql-offset-and-limit-2000-records/</t>
+  </si>
+  <si>
+    <t>Query More</t>
+  </si>
+  <si>
+    <t>https://medium.com/@charlie_77818/querying-large-ish-datasets-fast-and-efficiently-with-salesforces-composite-resources-3f614dbca111</t>
+  </si>
+  <si>
+    <t>https://www.biswajeetsamal.com/blog/using-offset-in-soql/</t>
+  </si>
+  <si>
+    <t>Offset (try to avoid)</t>
+  </si>
+  <si>
+    <t>http://sfdcsrini.blogspot.com/2015/01/pros-and-cons-of-choosing-pagination-in.html</t>
+  </si>
+  <si>
+    <t>http://amitghadage.blogspot.com/2017/03/new-way-of-pagination.html</t>
+  </si>
+  <si>
+    <t>Disadvantages of using Pagination</t>
+  </si>
+  <si>
+    <t>Memory exhaustion on the server side.</t>
+  </si>
+  <si>
+    <r>
+      <t>Even if a single request does not cause a problem, it can occur when multiple requests are executed at the same time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.9"/>
+        <color theme="1"/>
+        <rFont val="Source Code Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.OutOfMemoryError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Occurrence of network load.</t>
+  </si>
+  <si>
+    <t>By flowing unnecessary data to the network, the load on the entire network increases, which may affect the response time of the entire system.</t>
+  </si>
+  <si>
+    <t>Occurrence of screen response delay.</t>
+  </si>
+  <si>
+    <t>When handling a large amount of data, the server processing, network traffic processing, and client drawing processing all take time, which may slow down the screen response.</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/blogs/tech-pubs/2012/06/the-joys-of-soql-pagination.html</t>
+  </si>
+  <si>
+    <t>Custom Logic_1</t>
+  </si>
+  <si>
+    <t>Custom Logic_2</t>
+  </si>
+  <si>
+    <t>Use Composite API with sub resources to overcome the OFFSET limitation i.e query more than 2000 records</t>
+  </si>
+  <si>
+    <t>https://www.biswajeetsamal.com/blog/salesforce-lightning-datatable/</t>
+  </si>
+  <si>
+    <t>Stencils</t>
+  </si>
+  <si>
+    <t>https://devlife.tech/lwc/how-to-use-stencils-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>Picklist</t>
+  </si>
+  <si>
+    <t>Global Picklist</t>
+  </si>
+  <si>
+    <t>picklist (multi select)</t>
+  </si>
+  <si>
+    <t>N level dependency picklist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5PQ06YUCn38</t>
+  </si>
+  <si>
+    <t>https://www.c-sharpcorner.com/article/creating-a-picklist-in-salesforce-lightning-platform/</t>
+  </si>
+  <si>
+    <t>picklist vs multi picklist</t>
+  </si>
+  <si>
+    <t>http://www.longshoreconsulting.com/blog/why-i-never-use-multi-select-picklists-in-salesforce</t>
+  </si>
+  <si>
+    <t>https://www.brcline.com/blog/avoid-multi-select-picklists-salesforce</t>
+  </si>
+  <si>
+    <t>Reset form values</t>
+  </si>
+  <si>
+    <t>https://naveendhanaraj.wordpress.com/2020/11/22/lightning-record-edit-form-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>code review tools</t>
+  </si>
+  <si>
+    <t>http://www.cloudyabhi.com/2018/08/best-in-market-list-of-code-review.html</t>
+  </si>
+  <si>
+    <t>Layouts</t>
+  </si>
+  <si>
+    <t>Customize Lookup Field Mouse Hover Details</t>
+  </si>
+  <si>
+    <t>https://www.biswajeetsamal.com/blog/tag/mouse-hover-details/</t>
+  </si>
+  <si>
+    <t>https://sfdctechie.wordpress.com/2018/07/09/compact-layout-expanded-lookup-card/</t>
+  </si>
+  <si>
+    <t>compact layout vs mini layout</t>
+  </si>
+  <si>
+    <t>https://www.infallibletechie.com/2014/12/how-to-change-fields-used-by-hover.html</t>
+  </si>
+  <si>
+    <t>https://salesforcethinkers.home.blog/2020/02/12/compact-and-mini-page-layouts-in-salesforce/</t>
+  </si>
+  <si>
+    <t>https://www.xgeek.net/salesforce/use-salesforce-mini-page-layout-in-visualforce-page/</t>
+  </si>
+  <si>
+    <t>https://www.wissel.net/blog/2018/11/lightning-mini-forms.html</t>
+  </si>
+  <si>
+    <t>mini forms</t>
+  </si>
+  <si>
+    <t>https://www.simplysfdc.com/2014/02/salesforce-customize-mouse-hover-lookup.html</t>
+  </si>
+  <si>
+    <t>https://www.codekiat.com/2020/01/helptext-or-tooltip-on-hover-inside-lightning-experience.html</t>
+  </si>
+  <si>
+    <t>https://sfdcblog.binaryrepublik.com/2019/07/display-mini-page-layout-on-hover-in.html#.X_t-79hKh3h</t>
+  </si>
+  <si>
+    <t>https://technogeeksfdc.wordpress.com/2018/07/30/custom-popover-in-lightning/</t>
+  </si>
+  <si>
+    <t>popover</t>
+  </si>
+  <si>
+    <t>https://blog.crmscience.com/2012/01/handy-hover-popup-css-for-salesforce.html</t>
+  </si>
+  <si>
+    <t>https://www.forcetrails.com/2020/03/how-to-add-delete-row-dynamically-in-lwc-lightning-web-component-datatable-lwc.html</t>
+  </si>
+  <si>
+    <t>Add icons in the fields</t>
+  </si>
+  <si>
+    <t>https://www.forcetrails.com/2020/05/how-to-create-lightning-input-with-icon-lwc.html</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>https://www.forcetrails.com/2020/07/open-standard-record-editview-page-from.html</t>
+  </si>
+  <si>
+    <t>Hyperlink formula fields</t>
+  </si>
+  <si>
+    <t>https://salesforce.fun/2020/10/22/clickable-custom-formula-field-relative-vs-absolute/</t>
+  </si>
+  <si>
+    <t>https://unofficialsf.com/now-display-rich-text-and-custom-links-and-images-in-datatables/</t>
+  </si>
+  <si>
+    <t>https://www.salesforcepoint.com/2020/06/how-to-add-hyper-link-for-name-column.html</t>
+  </si>
+  <si>
+    <t>https://sfdcfacts.com/lightning/editable-lightningdatatable-summer18-feature/</t>
+  </si>
+  <si>
+    <t>inline editing</t>
+  </si>
+  <si>
+    <t>insert bulk records</t>
+  </si>
+  <si>
+    <t>https://www.salesforcecodecrack.com/2019/08/delete-record-using-wire.html</t>
+  </si>
+  <si>
+    <t>delete single record</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/delete-record-in-lwc-using-deleterecord-of-uirecordapi/</t>
+  </si>
+  <si>
+    <t>https://www.w3web.net/delete-selected-records-on-click-button-in-lwc/</t>
+  </si>
+  <si>
+    <t>http://sfdccodepractices.blogspot.com/2019/06/delete-record-lwc-example.html</t>
+  </si>
+  <si>
+    <t>delete multiple records</t>
+  </si>
+  <si>
+    <t>https://www.lifedreamguide.com/2020/05/delete-multiple-rows-dynamically-from.html</t>
+  </si>
+  <si>
+    <t>delete multiple records from multiple objects</t>
+  </si>
+  <si>
+    <t>https://www.infallibletechie.com/2019/02/delete-records-across-multiple-objects.html</t>
+  </si>
+  <si>
+    <t>update multiple records</t>
+  </si>
+  <si>
+    <t>https://www.w3web.net/edit-save-and-remove-rows-dynamically-in-lightning-component/</t>
+  </si>
+  <si>
+    <t>https://sfdcmonkey.com/2017/04/30/add-multiple-child-records-lightning-component/</t>
+  </si>
+  <si>
+    <t>https://madsfdctech.com/2020/04/dynamically-add-or-delete-row-add-multiple-row-as-per-user-input-in-lightning-component/</t>
+  </si>
+  <si>
+    <t>Help text with Icon</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2020/11/lightning-help-text-with-custom-icon-in.html</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>https://www.salesforcebolt.com/2019/04/css-to-use-different-font-size-in.html</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>Table inside accordion</t>
+  </si>
+  <si>
+    <t>https://salesforce.stackexchange.com/questions/314419/lwc-when-tabbing-in-datatable-view-scrolls-up</t>
+  </si>
+  <si>
+    <t>Sharing rules for LWC</t>
+  </si>
+  <si>
+    <t>https://salesforcecodex.com/2020/02/enforce-object-level-and-field-level-permissions-in-apex/</t>
+  </si>
+  <si>
+    <t>https://sfdcforum.wordpress.com/2018/07/15/sfdc-scenario-based-interview-questions/</t>
+  </si>
+  <si>
+    <t>https://www.salesforcehut.com/p/some-typical-questions.html</t>
+  </si>
+  <si>
+    <t>override standard buttons</t>
+  </si>
+  <si>
+    <t>https://merfantz.com/blog/how-to-override-the-salesforce-new-button/</t>
+  </si>
+  <si>
+    <t>split view</t>
+  </si>
+  <si>
+    <t>https://merfantz.com/blog/how-to-create-the-split-view-in-salesforce-lightning/</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/documentation/en/lwc/lwc.use_width_aware</t>
+  </si>
+  <si>
+    <t>https://rajvakati.com/2018/12/02/usage-of-lightningactionoverride/</t>
+  </si>
+  <si>
+    <t>https://www.infallibletechie.com/2019/12/overriding-new-button-in-salesforce.html</t>
+  </si>
+  <si>
+    <t>http://www.tgerm.com/2017/09/Exploring-Salesforce-Lightning-flexipageRegionInfo-tag-Winter18.html</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/atlas.en-us.lightning.meta/lightning/components_config_for_app_builder_width_aware.htm</t>
+  </si>
+  <si>
+    <t>https://rajvakati.com/2018/12/29/lightning-web-components-making-width-aware/</t>
+  </si>
+  <si>
+    <t>https://salesforce.stackexchange.com/questions/284137/how-to-control-lwc-styling-dynamically</t>
+  </si>
+  <si>
+    <t>Color columns</t>
+  </si>
+  <si>
+    <t>https://hellosnl.blogspot.com/search/label/escapeSingleQuotes</t>
+  </si>
+  <si>
+    <t>SOQL injections</t>
+  </si>
+  <si>
+    <t>http://nirmalchristopher.blogspot.com/2014/05/soql-injection-attacks.html</t>
+  </si>
+  <si>
+    <t>http://sfdcsrini.blogspot.com/2014/09/soql-injection-in-salesforce.html</t>
+  </si>
+  <si>
+    <t>http://nirmalchristopher.blogspot.com/2014/05/enforcing-crud-fls-enforcements-in.html</t>
+  </si>
+  <si>
+    <t>https://www.gammone.com/en/programming/how-to-color-columns-of-data-table-in-lightning-web-component</t>
+  </si>
+  <si>
+    <t>Replacing Related Lists with the Related List Quick Links Component</t>
+  </si>
+  <si>
+    <t>https://salesforcediaries.com/2019/05/22/optimize-your-lightning-page-layout/</t>
+  </si>
+  <si>
+    <t>OPTIMIZE YOUR LIGHTNING PAGE LAYOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accordion </t>
+  </si>
+  <si>
+    <t>https://theaccidentaladmins.com/accordion-love</t>
+  </si>
+  <si>
+    <t>Rich text validation rules</t>
+  </si>
+  <si>
+    <t>https://theaccidentaladmins.com/rich-text-validation-rules</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>https://theaccidentaladmins.com/lightning-layout-tricks-user-toggles-for-detail-fields</t>
+  </si>
+  <si>
+    <t>Hide and show fields</t>
+  </si>
+  <si>
+    <t>https://theaccidentaladmins.com/conditional-record-detail-components</t>
+  </si>
+  <si>
+    <t>Conditional record detail</t>
+  </si>
+  <si>
+    <t>Collapsable related list</t>
+  </si>
+  <si>
+    <t>https://salesforcediaries.com/2019/03/12/collapsible-related-list-in-lightning-experience/</t>
+  </si>
+  <si>
+    <t>https://merfantz.com/blog/how-to-place-related-list-quick-links-in-salesforce-lightning/</t>
+  </si>
+  <si>
+    <t>page layout best practices with Quick actions</t>
+  </si>
+  <si>
+    <t>https://theeverydayadmin.com/2018/12/17/use-lightning-quick-actions-to-create-powerful-page-layouts-your-users-will-love/</t>
+  </si>
+  <si>
+    <t>Dynamic tabs</t>
+  </si>
+  <si>
+    <t>https://theeverydayadmin.com/2018/12/17/tabs-glorious-tabs/</t>
+  </si>
+  <si>
+    <t>https://salesforcediaries.com/2019/09/05/creating-a-record-in-lightning-web-component-best-practise-part-1/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CRUD permissions for lWC</t>
+  </si>
+  <si>
+    <t>https://sfdcfacts.com/lwc/color-columns-of-data-table-lwc/  (https://gist.github.com/choudharymanish8585/94e0d7adb751ce36a6c9a35397da592b)</t>
+  </si>
+  <si>
+    <t>UI API</t>
+  </si>
+  <si>
+    <t>https://sfdctechie.wordpress.com/2019/12/21/understanding-lds-in-lightning-web-components/</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/atlas.en-us.uiapi.meta/uiapi/ui_api_get_started.htm</t>
+  </si>
+  <si>
+    <t>getFieldValue</t>
+  </si>
+  <si>
+    <t>https://www.santanuatonline.com/get-record-details-by-ui-api/</t>
+  </si>
+  <si>
+    <t>https://www.santanuatonline.com/apex-with-ui-api/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getSObjectValue </t>
+  </si>
+  <si>
+    <t>Custom validations</t>
+  </si>
+  <si>
+    <t>https://salesforceprofs.com/custom-validation-with-lightningrecordeditform/</t>
+  </si>
+  <si>
+    <t>Refresh component</t>
+  </si>
+  <si>
+    <t>search,pagination and sorting</t>
+  </si>
+  <si>
+    <t>https://sfdctree.wordpress.com/2020/10/20/lwc-lightning-data-table-with-pagination-searching-and-sorting/</t>
+  </si>
+  <si>
+    <t>https://niksdeveloper.com/salesforce/multiple-column-search-on-datatable-in-lightning/</t>
+  </si>
+  <si>
+    <t>stop selecting dual list</t>
+  </si>
+  <si>
+    <t>purpose of onchange</t>
+  </si>
+  <si>
+    <t>https://salesforcecodex.com/2020/10/stop-deselecting-lightning-dual-listbox-list/</t>
+  </si>
+  <si>
+    <t>https://salesforcecodex.com/2020/08/single-row-selection-in-lightning-datatable/</t>
+  </si>
+  <si>
+    <t>Restrict user to select only one row</t>
+  </si>
+  <si>
+    <t>http://onemoreincloud.blogspot.com/2018/03/salesforce-user-interface-api.html</t>
+  </si>
+  <si>
+    <t>Accessing child component methods</t>
+  </si>
+  <si>
+    <t>https://salesforcesas.home.blog/2019/07/25/lwc-access-templates-and-methods-of-child-components/</t>
+  </si>
+  <si>
+    <t>Custom datatable</t>
+  </si>
+  <si>
+    <t>https://salesforcesas.home.blog/2019/07/26/using-custom-lwc-components-in-lightning-datatable/</t>
+  </si>
+  <si>
+    <t>LWC selectors</t>
+  </si>
+  <si>
+    <t>https://salesforcesas.home.blog/2019/07/16/lwc-selectors-identification-of-elements/</t>
+  </si>
+  <si>
+    <t>https://salesforcesas.home.blog/2019/06/23/custom-table-in-lwc/</t>
+  </si>
+  <si>
+    <t>Custom column in datatable</t>
+  </si>
+  <si>
+    <t>https://devlife.tech/lwc/how-to-create-a-custom-column-in-datatable-lwc/</t>
+  </si>
+  <si>
+    <t>select and update multiple records</t>
+  </si>
+  <si>
+    <t>https://www.salesforcemind.com/search/label/LWC</t>
+  </si>
+  <si>
+    <t>https://slacker.ro/2019/09/12/caching-and-synchronizing-component-data-with-lightning-data-service/</t>
+  </si>
+  <si>
+    <t>javascript events</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/js/js_events_examples.asp</t>
+  </si>
+  <si>
+    <t>https://www.axiom-consulting.co/blog/dynamic-row-actions-with-lightning-datatable</t>
+  </si>
+  <si>
+    <t>Dynamic Actions</t>
+  </si>
+  <si>
+    <t>https://www.axiom-consulting.co/blog/capturing-record-views-in-salesforce-without-apex</t>
+  </si>
+  <si>
+    <t>https://salesforce.stackexchange.com/questions/274378/refresh-lwc-component-on-record-save</t>
+  </si>
+  <si>
+    <t>https://thesfnerd.blogspot.com/2019/08/how-to-refresh-getrecord-wire-adapter.html</t>
+  </si>
+  <si>
+    <t>https://copyfuture.com/blogs-details/202012181609213570n4fa5qouqetn8v</t>
+  </si>
+  <si>
+    <t>Rename input field name</t>
+  </si>
+  <si>
+    <t>https://salesforcediaries.com/2020/02/24/how-to-override-lightning-input-field-label-in-lightning-web-component/</t>
+  </si>
+  <si>
+    <t>https://sfdcmonkey.com/2018/10/20/display-help-text-lightninginput-field-component/</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/zero-zyq/p/13326371.html</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/zero-zyq/p/14149467.html</t>
+  </si>
+  <si>
+    <t>http://theblogreaders.com/use-refreshapex-lightning-web-components-lwc/</t>
+  </si>
+  <si>
+    <t>https://github.com/mitchspano/LWCRefreshDemo/blob/master/force-app/main/default/lwc/brokerLWC/brokerLWC.js</t>
+  </si>
+  <si>
+    <t>https://github.com/tushar30/LWCDataTable-LazyLoading/blob/master/lwcDataTable/lwcDataTable.js</t>
+  </si>
+  <si>
+    <t>Custom related list</t>
+  </si>
+  <si>
+    <t>https://github.com/dancinllama/Related-List-LWC/tree/master/force-app/main/default/lwc</t>
+  </si>
+  <si>
+    <t>Dynamic picklist for App builder</t>
+  </si>
+  <si>
+    <t>VisualEditor.DynamicPicklist</t>
+  </si>
+  <si>
+    <t>UIRecordAPI</t>
+  </si>
+  <si>
+    <t>UI dynamic picklsit or depedendent picklist based on recordtype</t>
+  </si>
+  <si>
+    <t>Custom multi select picklist can be implemented in 3 ways (using multiple checkboxes or dual list component or pill container)</t>
+  </si>
+  <si>
+    <t>https://lenguyensf.blog/2020/06/29/refresh-other-lightning-web-components-from-flow/</t>
+  </si>
+  <si>
+    <t>Navigation Service</t>
+  </si>
+  <si>
+    <t>https://sfwiseguys.wordpress.com/2020/11/15/lwc-navigation/</t>
+  </si>
+  <si>
+    <t>https://www.codetd.com/en/article/7286234</t>
+  </si>
+  <si>
+    <t>https://www.infallibletechie.com/2020/05/lightning-record-form-lwc-in-salesforce.html</t>
+  </si>
+  <si>
+    <t>https://sfdccore.blogspot.com/2019/08/how-to-get-url-parameters-query-string.html</t>
+  </si>
+  <si>
+    <t>https://developer.salesforce.com/docs/component-library/documentation/en/lwc/lwc.use_navigate_default</t>
+  </si>
+  <si>
+    <t>Spinner</t>
+  </si>
+  <si>
+    <t>https://www.thephani.com/lwc-datatable-spinner/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +1563,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.9"/>
+      <color theme="1"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -806,12 +1591,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1093,19 +1884,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="34.453125" customWidth="1"/>
     <col min="3" max="3" width="140.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1116,12 +1907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -1129,17 +1920,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1155,7 +1946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1163,7 +1954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -1171,7 +1962,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1179,12 +1970,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="20.5">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.5">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,19 +2002,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.5">
       <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.5">
       <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.5">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1231,61 +2022,61 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.5">
       <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.5">
       <c r="B27" s="1"/>
       <c r="C27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15.5">
       <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.5">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.5">
       <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.5">
       <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.5">
       <c r="B32" s="1"/>
       <c r="C32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.5">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.5">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15.5">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.5">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="15.5">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -1296,37 +2087,49 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.5">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="15.5">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.5">
+      <c r="A40" t="s">
+        <v>318</v>
+      </c>
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.5">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.5">
+      <c r="A42" t="s">
+        <v>374</v>
+      </c>
       <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.5">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="15.5">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15.5">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="15.5">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.5">
       <c r="B47" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1337,680 +2140,969 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="B53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>19</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
+    <row r="57" spans="1:3">
+      <c r="C57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
+    <row r="61" spans="1:3">
+      <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>27</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>29</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>39</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>43</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>47</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>49</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>53</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C74" t="s">
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3">
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>54</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>57</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>58</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3">
+      <c r="C81" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="C82" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="C83" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="C84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>72</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
+    <row r="87" spans="1:3">
+      <c r="B87" t="s">
         <v>98</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>80</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
         <v>79</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C89" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>2</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B91" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>142</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C93" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C89" t="s">
+    <row r="94" spans="1:3">
+      <c r="C94" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C90" t="s">
+    <row r="95" spans="1:3">
+      <c r="C95" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C91" t="s">
+    <row r="96" spans="1:3">
+      <c r="C96" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C92" t="s">
+    <row r="97" spans="1:3">
+      <c r="C97" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C93" t="s">
+    <row r="98" spans="1:3">
+      <c r="C98" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C94" t="s">
+    <row r="99" spans="1:3">
+      <c r="C99" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C95" t="s">
+    <row r="100" spans="1:3">
+      <c r="C100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C96" t="s">
+    <row r="101" spans="1:3">
+      <c r="C101" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
+    <row r="102" spans="1:3">
+      <c r="C102" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C98" t="s">
+    <row r="103" spans="1:3">
+      <c r="C103" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>82</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C102" t="s">
+    <row r="107" spans="1:3">
+      <c r="C107" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C103" t="s">
+    <row r="108" spans="1:3">
+      <c r="C108" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C104" t="s">
+    <row r="109" spans="1:3">
+      <c r="C109" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C105" t="s">
+    <row r="110" spans="1:3">
+      <c r="C110" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C106" t="s">
+    <row r="111" spans="1:3">
+      <c r="C111" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C107" t="s">
+    <row r="112" spans="1:3">
+      <c r="C112" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C108" t="s">
+    <row r="113" spans="1:3">
+      <c r="C113" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>220</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B116" t="s">
         <v>219</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C116" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C112" t="s">
+    <row r="117" spans="1:3">
+      <c r="C117" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C113" t="s">
+    <row r="118" spans="1:3">
+      <c r="C118" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C114" t="s">
+    <row r="119" spans="1:3">
+      <c r="C119" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B115" t="s">
+    <row r="120" spans="1:3">
+      <c r="B120" t="s">
         <v>224</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C120" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C116" t="s">
+    <row r="121" spans="1:3">
+      <c r="C121" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C117" t="s">
+    <row r="122" spans="1:3">
+      <c r="C122" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
+    <row r="123" spans="1:3">
+      <c r="C123" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
         <v>229</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C126" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C122" t="s">
+    <row r="127" spans="1:3">
+      <c r="C127" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C123" t="s">
+    <row r="128" spans="1:3">
+      <c r="C128" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C124" t="s">
+    <row r="129" spans="1:3">
+      <c r="C129" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C125" t="s">
+    <row r="130" spans="1:3">
+      <c r="C130" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C126" t="s">
+    <row r="131" spans="1:3">
+      <c r="C131" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
         <v>84</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C134" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3">
+      <c r="C135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="C136" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="C137" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>93</v>
+      </c>
+      <c r="C139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="C140" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>91</v>
+      </c>
+      <c r="B142" t="s">
+        <v>161</v>
+      </c>
       <c r="C142" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="B143" t="s">
+        <v>137</v>
+      </c>
       <c r="C143" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="C144" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>93</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="B145" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="C146" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="C147" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>91</v>
-      </c>
-      <c r="B149" t="s">
-        <v>161</v>
-      </c>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="B148" t="s">
+        <v>138</v>
+      </c>
+      <c r="C148" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="C149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B150" t="s">
-        <v>137</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="C150" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="C151" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="B152" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C152" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="B153" t="s">
+        <v>150</v>
+      </c>
       <c r="C153" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C154" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>102</v>
+      </c>
       <c r="B155" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C155" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="C156" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="C157" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C158" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B159" t="s">
-        <v>148</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="C159" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B160" t="s">
-        <v>150</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="C160" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>102</v>
-      </c>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="B162" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C162" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="C163" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="C164" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C166" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="C165" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="C167" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B169" t="s">
-        <v>109</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="C168" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="C169" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="C170" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="C171" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="C172" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C174" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="C173" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>126</v>
+      </c>
       <c r="C175" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="C176" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C177" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C178" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C179" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C180" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>126</v>
-      </c>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>129</v>
+      </c>
+      <c r="C181" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="C182" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C183" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="C185" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C188" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>131</v>
-      </c>
-      <c r="C191" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>133</v>
-      </c>
-      <c r="C195" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
         <v>153</v>
       </c>
+      <c r="C192" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="C193" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="C194" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C198" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="C199" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C200" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C201" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>157</v>
-      </c>
-      <c r="C205" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>45</v>
+      </c>
+      <c r="B202" t="s">
+        <v>165</v>
+      </c>
+      <c r="C202" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="B203" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>200</v>
+      </c>
       <c r="C206" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>45</v>
-      </c>
-      <c r="B209" t="s">
-        <v>165</v>
-      </c>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="C207" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="C208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="C209" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B210" t="s">
-        <v>168</v>
-      </c>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="C210" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>200</v>
-      </c>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="C211" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="C212" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="C213" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="C214" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="C215" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C216" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C217" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C218" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>329</v>
+      </c>
       <c r="C219" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C220" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>350</v>
+      </c>
       <c r="C221" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C222" t="s">
-        <v>209</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>376</v>
+      </c>
+      <c r="C223" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>385</v>
+      </c>
+      <c r="C226" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="C227" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="C228" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="C229" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>432</v>
+      </c>
+      <c r="C231" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>428</v>
+      </c>
+      <c r="C235" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>431</v>
+      </c>
+      <c r="C236" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>434</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="C241" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="C242" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="C243" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="C244" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="C245" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="C246" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="C247" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="C248" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="C249" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="C250" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>438</v>
+      </c>
+      <c r="B252" t="s">
+        <v>439</v>
+      </c>
+      <c r="C252" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>444</v>
+      </c>
+      <c r="C255" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>448</v>
+      </c>
+      <c r="C258" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="C259" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>456</v>
+      </c>
+      <c r="C261" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>464</v>
+      </c>
+      <c r="C264" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="C265" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="C266" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>480</v>
+      </c>
+      <c r="C268" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="C269" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="C270" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="C271" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2020,21 +3112,266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC03C94D-8F5B-4AA7-8F34-706F763E2117}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AFFD0-FA92-4D02-B253-40AA8255400C}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="42.81640625" customWidth="1"/>
+    <col min="2" max="2" width="60.6328125" customWidth="1"/>
+    <col min="3" max="3" width="121.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="C28" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B35" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>414</v>
+      </c>
+      <c r="C41" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>418</v>
+      </c>
+      <c r="C43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC03C94D-8F5B-4AA7-8F34-706F763E2117}">
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
     <col min="3" max="3" width="143.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -2045,27 +3382,27 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="C2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="C3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>173</v>
       </c>
@@ -2073,17 +3410,17 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="C8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>184</v>
       </c>
@@ -2091,32 +3428,249 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="C14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>176</v>
       </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
+    <row r="29" spans="1:3">
+      <c r="C29" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>368</v>
+      </c>
+      <c r="C32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="C43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="C60" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="C63" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="C64" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2124,129 +3678,355 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48827A36-A418-47DB-A20A-585EBFD735E9}">
-  <dimension ref="A1:C7"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01E7889-A40B-4C66-8B79-FB954BC281DF}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="49.453125" customWidth="1"/>
+    <col min="2" max="2" width="155.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48827A36-A418-47DB-A20A-585EBFD735E9}">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.7265625" customWidth="1"/>
     <col min="2" max="2" width="61.08984375" customWidth="1"/>
     <col min="3" max="3" width="136.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C19" t="s">
         <v>77</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F52C3B-4F9B-45CB-A829-D2D51C2D8252}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-    <col min="3" max="3" width="171.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="173.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>378</v>
+      </c>
+      <c r="B53" t="s">
+        <v>379</v>
+      </c>
+      <c r="C53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>451</v>
+      </c>
+      <c r="C61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>472</v>
+      </c>
+      <c r="C64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -2255,6 +4035,142 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F52C3B-4F9B-45CB-A829-D2D51C2D8252}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="143.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="173.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21982E-477D-433F-A1B0-FB62CD8142DB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2262,12 +4178,12 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
@@ -2281,31 +4197,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A8B77-C16C-4DEC-A34F-4CCE803A30F3}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
     <col min="2" max="2" width="178.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -2313,22 +4229,69 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29">
+      <c r="B14" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Notes/URLs.xlsx
+++ b/Notes/URLs.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsiripurapu\Desktop\Apex Enterprise Patterns\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2078770-B98C-4BC9-B9D7-36E1D8D09088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E8C743-7ADB-4175-B9A6-A298343587F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Fields" sheetId="10" r:id="rId2"/>
-    <sheet name="Bulkification" sheetId="7" r:id="rId3"/>
-    <sheet name="Custom Lookup" sheetId="9" r:id="rId4"/>
-    <sheet name="datatable" sheetId="2" r:id="rId5"/>
-    <sheet name="Security" sheetId="4" r:id="rId6"/>
-    <sheet name="Tools" sheetId="5" r:id="rId7"/>
-    <sheet name="vsCode Extensions" sheetId="6" r:id="rId8"/>
-    <sheet name="Integration" sheetId="8" r:id="rId9"/>
+    <sheet name="UI" sheetId="11" r:id="rId2"/>
+    <sheet name="Fields" sheetId="10" r:id="rId3"/>
+    <sheet name="Bulkification" sheetId="7" r:id="rId4"/>
+    <sheet name="Custom Lookup" sheetId="9" r:id="rId5"/>
+    <sheet name="datatable" sheetId="2" r:id="rId6"/>
+    <sheet name="Security" sheetId="4" r:id="rId7"/>
+    <sheet name="Tools" sheetId="5" r:id="rId8"/>
+    <sheet name="vsCode Extensions" sheetId="6" r:id="rId9"/>
+    <sheet name="Integration" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="490">
   <si>
     <t>https://blog.texei.com/refresh-a-record-page-from-a-lightning-web-component-14a5874ff68e</t>
   </si>
@@ -1529,6 +1530,12 @@
   </si>
   <si>
     <t>https://www.thephani.com/lwc-datatable-spinner/</t>
+  </si>
+  <si>
+    <t>Convert checkbox to Radio functionality</t>
+  </si>
+  <si>
+    <t>https://theashcode.com/lwc-radio-with-checkboxes/</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3111,7 +3118,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A8B77-C16C-4DEC-A34F-4CCE803A30F3}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.90625" customWidth="1"/>
+    <col min="2" max="2" width="178.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29">
+      <c r="B14" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A2B40-432D-4840-AFFA-741817A28974}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="177" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72AFFD0-FA92-4D02-B253-40AA8255400C}">
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -3356,7 +3489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC03C94D-8F5B-4AA7-8F34-706F763E2117}">
   <dimension ref="A1:C64"/>
   <sheetViews>
@@ -3678,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01E7889-A40B-4C66-8B79-FB954BC281DF}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3731,11 +3864,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48827A36-A418-47DB-A20A-585EBFD735E9}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
@@ -4034,7 +4167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F52C3B-4F9B-45CB-A829-D2D51C2D8252}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4111,7 +4244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A900DDA-61E7-42E2-A62B-3EE2124DC406}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -4170,7 +4303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E21982E-477D-433F-A1B0-FB62CD8142DB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4195,103 +4328,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A8B77-C16C-4DEC-A34F-4CCE803A30F3}">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="32.90625" customWidth="1"/>
-    <col min="2" max="2" width="178.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29">
-      <c r="B14" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>425</v>
-      </c>
-      <c r="B18" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>